--- a/TestMNIST/MatlabCodes/temp_3_layer_final_iteration.xlsx
+++ b/TestMNIST/MatlabCodes/temp_3_layer_final_iteration.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-1.1713177445941591E-2</v>
+        <v>-7.2492138255929334E-3</v>
       </c>
       <c r="B1">
-        <v>-8.8608071807357823E-3</v>
+        <v>-8.1406616791069343E-3</v>
       </c>
       <c r="C1">
-        <v>-7.5216511685238579E-3</v>
+        <v>-1.0476259361751117E-2</v>
       </c>
       <c r="D1">
-        <v>-8.9475552422595087E-3</v>
+        <v>-2.556858610363141E-2</v>
       </c>
       <c r="E1">
-        <v>-8.7210756419882664E-3</v>
+        <v>-1.0125570160998762E-2</v>
       </c>
       <c r="F1">
-        <v>-1.0139503451007677E-2</v>
+        <v>-1.3172471437025322E-2</v>
       </c>
       <c r="G1">
-        <v>-5.6502120006043984E-3</v>
+        <v>-1.2641673179481956E-2</v>
       </c>
       <c r="H1">
-        <v>-1.0719942087819602E-2</v>
+        <v>-1.1937456888638792E-2</v>
       </c>
       <c r="I1">
-        <v>-9.8055761312188863E-3</v>
+        <v>-1.378804864623317E-2</v>
       </c>
       <c r="J1">
-        <v>-1.3149938752908806E-2</v>
+        <v>-7.247545319591083E-3</v>
       </c>
       <c r="K1">
-        <v>-6.8506066714205402E-3</v>
+        <v>-1.646151114502167E-2</v>
       </c>
       <c r="L1">
-        <v>-7.1958282761131432E-3</v>
+        <v>-1.3512618722307355E-2</v>
       </c>
       <c r="M1">
-        <v>-1.1993198248680078E-2</v>
+        <v>-1.251861593687624E-2</v>
       </c>
       <c r="N1">
-        <v>-7.6339280089294309E-3</v>
+        <v>-5.571747480154661E-3</v>
       </c>
       <c r="O1">
-        <v>-9.8491190716029769E-3</v>
+        <v>-1.4462009470536831E-2</v>
       </c>
       <c r="P1">
-        <v>-9.523706003137046E-3</v>
+        <v>-1.6551990704047538E-2</v>
       </c>
       <c r="Q1">
-        <v>-1.3322449853285465E-2</v>
+        <v>-5.8200881485237161E-3</v>
       </c>
       <c r="R1">
-        <v>-1.0180682187679502E-2</v>
+        <v>-1.3496884892132317E-2</v>
       </c>
       <c r="S1">
-        <v>-6.4200202664621356E-3</v>
+        <v>-1.3872085034304597E-2</v>
       </c>
       <c r="T1">
-        <v>-8.3781725061927055E-3</v>
+        <v>-5.5951081168035188E-3</v>
       </c>
       <c r="U1">
-        <v>-4.0863421974526104E-3</v>
+        <v>-8.8237923253074221E-3</v>
       </c>
       <c r="V1">
-        <v>-1.4786872659270671E-2</v>
+        <v>-5.8510575717777916E-3</v>
       </c>
       <c r="W1">
-        <v>-6.0851215391153788E-3</v>
+        <v>-1.5427601051563603E-2</v>
       </c>
       <c r="X1">
-        <v>-9.1860422093905623E-3</v>
+        <v>-8.7213563534530598E-3</v>
       </c>
       <c r="Y1">
-        <v>-1.4406479494304686E-2</v>
+        <v>-1.1082330541946834E-2</v>
       </c>
       <c r="Z1">
-        <v>-7.0516402072320307E-3</v>
+        <v>-9.9556622633120966E-3</v>
       </c>
       <c r="AA1">
-        <v>-1.5585119941651352E-2</v>
+        <v>-6.2275913804645828E-3</v>
       </c>
       <c r="AB1">
-        <v>-6.4000548556432347E-3</v>
+        <v>-1.3861635660099954E-2</v>
       </c>
       <c r="AC1">
-        <v>-1.3875797129212707E-2</v>
+        <v>-9.3971134133796173E-3</v>
       </c>
       <c r="AD1">
-        <v>-9.531619291872814E-3</v>
+        <v>-1.1075932117370757E-2</v>
       </c>
       <c r="AE1">
-        <v>-1.0624263438083681E-2</v>
+        <v>-6.6305612759871065E-3</v>
       </c>
       <c r="AF1">
-        <v>-1.2847336431433983E-2</v>
+        <v>-6.893430232916253E-3</v>
       </c>
       <c r="AG1">
-        <v>-6.8234671363256137E-3</v>
+        <v>-1.3389139047476841E-2</v>
       </c>
       <c r="AH1">
-        <v>-1.2931346003717262E-2</v>
+        <v>-5.8670421861891729E-3</v>
       </c>
       <c r="AI1">
-        <v>-5.6442134048651045E-3</v>
+        <v>-1.2906145175809493E-2</v>
       </c>
       <c r="AJ1">
-        <v>-2.1921350777894776E-2</v>
+        <v>-1.2169101628959917E-2</v>
       </c>
       <c r="AK1">
-        <v>-8.9704723857605712E-3</v>
+        <v>-1.4189892947085466E-2</v>
       </c>
       <c r="AL1">
-        <v>-8.237633440651362E-3</v>
+        <v>-1.093759161863948E-2</v>
       </c>
       <c r="AM1">
-        <v>-9.7149718831943104E-3</v>
+        <v>-9.7296514478636895E-3</v>
       </c>
       <c r="AN1">
-        <v>-1.0563162522814397E-2</v>
+        <v>-1.1266775644244725E-2</v>
       </c>
       <c r="AO1">
-        <v>-1.0786078314001822E-2</v>
+        <v>-8.8178120656835571E-3</v>
       </c>
       <c r="AP1">
-        <v>-1.7274317689650154E-2</v>
+        <v>-1.5547878187930932E-2</v>
       </c>
       <c r="AQ1">
-        <v>-9.4271263464249366E-3</v>
+        <v>-1.1552749219122228E-2</v>
       </c>
       <c r="AR1">
-        <v>-1.2498773258972543E-2</v>
+        <v>-1.3598249296308396E-2</v>
       </c>
       <c r="AS1">
-        <v>-1.1544808246312415E-2</v>
+        <v>-7.8437667642468172E-3</v>
       </c>
       <c r="AT1">
-        <v>-1.0033663046361005E-2</v>
+        <v>-7.0830787390293972E-3</v>
       </c>
       <c r="AU1">
-        <v>-1.3907987775313532E-2</v>
+        <v>-7.8593407876522085E-3</v>
       </c>
       <c r="AV1">
-        <v>-5.9303357905484116E-3</v>
+        <v>-1.2574802918090995E-2</v>
       </c>
       <c r="AW1">
-        <v>-6.8650075464246419E-3</v>
+        <v>-1.6249698049970198E-2</v>
       </c>
       <c r="AX1">
-        <v>-1.4400496041074523E-2</v>
+        <v>-7.5256715133203709E-3</v>
       </c>
       <c r="AY1">
-        <v>-1.6135854947211471E-2</v>
+        <v>-1.481900985676071E-2</v>
       </c>
       <c r="AZ1">
-        <v>-1.3056940504538419E-2</v>
+        <v>-1.1592402383972571E-2</v>
       </c>
       <c r="BA1">
-        <v>-8.1323723194117754E-3</v>
+        <v>-1.1024348785214182E-2</v>
       </c>
       <c r="BB1">
-        <v>-5.7494471396633048E-3</v>
+        <v>-9.7984816463209702E-3</v>
       </c>
       <c r="BC1">
-        <v>-1.1286909308217534E-2</v>
+        <v>-2.0626752990217063E-2</v>
       </c>
       <c r="BD1">
-        <v>-7.7558641033574679E-3</v>
+        <v>-1.7219725455981397E-2</v>
       </c>
       <c r="BE1">
-        <v>-1.1785818579898966E-2</v>
+        <v>-8.0782716237869957E-3</v>
       </c>
       <c r="BF1">
-        <v>-9.5880758117099785E-3</v>
+        <v>-3.8681819646098209E-3</v>
       </c>
       <c r="BG1">
-        <v>-7.2244904879851047E-3</v>
+        <v>-8.2957899077579066E-3</v>
       </c>
       <c r="BH1">
-        <v>-5.4858930446711664E-3</v>
+        <v>-1.425184922553157E-2</v>
       </c>
       <c r="BI1">
-        <v>-5.5576024920700705E-3</v>
+        <v>-1.3169274263205433E-2</v>
       </c>
       <c r="BJ1">
-        <v>-6.7632850703819936E-3</v>
+        <v>-1.5260177747871475E-2</v>
       </c>
       <c r="BK1">
-        <v>-1.4509901286749512E-2</v>
+        <v>-8.7700092893821004E-3</v>
       </c>
       <c r="BL1">
-        <v>-8.7706763577444502E-3</v>
+        <v>-1.2856714945514405E-2</v>
       </c>
       <c r="BM1">
-        <v>-1.1322366000936628E-2</v>
+        <v>-1.205544726356563E-2</v>
       </c>
       <c r="BN1">
-        <v>-1.3297724280737822E-2</v>
+        <v>-9.591909969939352E-3</v>
       </c>
       <c r="BO1">
-        <v>-1.5708163092004162E-2</v>
+        <v>-9.8161960700519565E-3</v>
       </c>
       <c r="BP1">
-        <v>-7.0054109812967384E-3</v>
+        <v>-9.5041388609923214E-3</v>
       </c>
       <c r="BQ1">
-        <v>-1.1417415957285E-2</v>
+        <v>-9.9404947335626718E-3</v>
       </c>
       <c r="BR1">
-        <v>-1.4077787804373238E-2</v>
+        <v>-1.2550208508715429E-2</v>
       </c>
       <c r="BS1">
-        <v>-5.1049774167632594E-3</v>
+        <v>-7.0414880134418087E-3</v>
       </c>
       <c r="BT1">
-        <v>-8.1514626494074531E-3</v>
+        <v>-1.172784490709276E-2</v>
       </c>
       <c r="BU1">
-        <v>-1.2246004813724364E-2</v>
+        <v>-6.7806898315991657E-3</v>
       </c>
       <c r="BV1">
-        <v>-5.0763000961126488E-3</v>
+        <v>-9.6182641589219482E-3</v>
       </c>
       <c r="BW1">
-        <v>-7.3119947376578962E-3</v>
+        <v>-9.3171513970979301E-3</v>
       </c>
       <c r="BX1">
-        <v>-5.9508487907979418E-3</v>
+        <v>-1.2145755516404714E-2</v>
       </c>
       <c r="BY1">
-        <v>-9.3946345800151477E-3</v>
+        <v>-1.1174883837687579E-2</v>
       </c>
       <c r="BZ1">
-        <v>-1.4036845943450471E-2</v>
+        <v>-1.4894073434866317E-2</v>
       </c>
       <c r="CA1">
-        <v>-1.5990841851538276E-2</v>
+        <v>-2.0639696556917504E-2</v>
       </c>
       <c r="CB1">
-        <v>-5.2785836161446846E-3</v>
+        <v>-8.7641346547216951E-3</v>
       </c>
       <c r="CC1">
-        <v>-8.9593497087160374E-3</v>
+        <v>-9.8057601929620666E-3</v>
       </c>
       <c r="CD1">
-        <v>-4.1814482386825953E-3</v>
+        <v>-2.4627395122719914E-2</v>
       </c>
       <c r="CE1">
-        <v>-8.8793157214676413E-3</v>
+        <v>-9.1017642920785506E-3</v>
       </c>
       <c r="CF1">
-        <v>-8.934552066034605E-3</v>
+        <v>-1.1337532676992989E-2</v>
       </c>
       <c r="CG1">
-        <v>-5.6224981119025819E-3</v>
+        <v>-9.4551228883978603E-3</v>
       </c>
       <c r="CH1">
-        <v>-1.1295170906237237E-2</v>
+        <v>-1.3723318436480536E-2</v>
       </c>
       <c r="CI1">
-        <v>-8.225965791364389E-3</v>
+        <v>-1.9702816905792078E-2</v>
       </c>
       <c r="CJ1">
-        <v>-5.7399085864661067E-3</v>
+        <v>-1.7959128558727371E-2</v>
       </c>
       <c r="CK1">
-        <v>-9.360612786169939E-3</v>
+        <v>-1.289130835119561E-2</v>
       </c>
       <c r="CL1">
-        <v>-1.0215096755594974E-2</v>
+        <v>-1.0958252114243094E-2</v>
       </c>
       <c r="CM1">
-        <v>-6.4575053353566891E-3</v>
+        <v>-1.5916930086667076E-2</v>
       </c>
       <c r="CN1">
-        <v>-1.2874853171525681E-2</v>
+        <v>-7.3190747732922948E-3</v>
       </c>
       <c r="CO1">
-        <v>-7.8196247105065831E-3</v>
+        <v>-1.6179571103717798E-2</v>
       </c>
       <c r="CP1">
-        <v>-7.2780265565041092E-3</v>
+        <v>-8.6265468699684138E-3</v>
       </c>
       <c r="CQ1">
-        <v>-1.2763357984799004E-2</v>
+        <v>-9.2314960547410924E-3</v>
       </c>
       <c r="CR1">
-        <v>-8.8762451432197638E-3</v>
+        <v>-1.2026689574848769E-2</v>
       </c>
       <c r="CS1">
-        <v>-1.0495796488108855E-2</v>
+        <v>-7.8644794802026196E-3</v>
       </c>
       <c r="CT1">
-        <v>-7.1932223435883062E-3</v>
+        <v>-1.4603943371106199E-2</v>
       </c>
       <c r="CU1">
-        <v>-5.8057635628141679E-3</v>
+        <v>-1.8644272319801463E-2</v>
       </c>
       <c r="CV1">
-        <v>-1.2522644161843744E-2</v>
+        <v>-1.5127456752527305E-2</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-1.1812091654263933E-2</v>
+        <v>-4.8350637807840205E-3</v>
       </c>
       <c r="B2">
-        <v>-8.8075940497485405E-3</v>
+        <v>-5.5035107910001652E-3</v>
       </c>
       <c r="C2">
-        <v>-7.639302968430876E-3</v>
+        <v>-7.0806624105755438E-3</v>
       </c>
       <c r="D2">
-        <v>-9.1336941479275274E-3</v>
+        <v>-1.7003156279647283E-2</v>
       </c>
       <c r="E2">
-        <v>-8.7167766185693354E-3</v>
+        <v>-6.7238527716587705E-3</v>
       </c>
       <c r="F2">
-        <v>-1.0156057036074924E-2</v>
+        <v>-8.7383570410764638E-3</v>
       </c>
       <c r="G2">
-        <v>-5.6574237827084657E-3</v>
+        <v>-8.4962159653004087E-3</v>
       </c>
       <c r="H2">
-        <v>-1.0899696692406584E-2</v>
+        <v>-7.9760443121369533E-3</v>
       </c>
       <c r="I2">
-        <v>-9.7959494251403066E-3</v>
+        <v>-9.0628326991734447E-3</v>
       </c>
       <c r="J2">
-        <v>-1.285027291505416E-2</v>
+        <v>-4.8656856824941235E-3</v>
       </c>
       <c r="K2">
-        <v>-6.8206881506820589E-3</v>
+        <v>-1.0905538019935926E-2</v>
       </c>
       <c r="L2">
-        <v>-7.1690174995202487E-3</v>
+        <v>-8.9766993561141307E-3</v>
       </c>
       <c r="M2">
-        <v>-1.1777821075725069E-2</v>
+        <v>-8.4943799651096257E-3</v>
       </c>
       <c r="N2">
-        <v>-7.7016998666853392E-3</v>
+        <v>-3.822264160006238E-3</v>
       </c>
       <c r="O2">
-        <v>-9.8159226635630321E-3</v>
+        <v>-9.5428738897912809E-3</v>
       </c>
       <c r="P2">
-        <v>-9.5100712170219266E-3</v>
+        <v>-1.1080266826027323E-2</v>
       </c>
       <c r="Q2">
-        <v>-1.3189171019278197E-2</v>
+        <v>-3.9794242965338856E-3</v>
       </c>
       <c r="R2">
-        <v>-1.0247751502814E-2</v>
+        <v>-9.0981358140962507E-3</v>
       </c>
       <c r="S2">
-        <v>-6.3337903587948746E-3</v>
+        <v>-9.1325682290481509E-3</v>
       </c>
       <c r="T2">
-        <v>-8.2838133860350018E-3</v>
+        <v>-3.7450789119077184E-3</v>
       </c>
       <c r="U2">
-        <v>-4.0557038949505997E-3</v>
+        <v>-5.8306731614316846E-3</v>
       </c>
       <c r="V2">
-        <v>-1.464406367099508E-2</v>
+        <v>-3.8748309883264997E-3</v>
       </c>
       <c r="W2">
-        <v>-6.1294309359910997E-3</v>
+        <v>-1.0186842602661658E-2</v>
       </c>
       <c r="X2">
-        <v>-9.2446990349651578E-3</v>
+        <v>-5.8524473823311721E-3</v>
       </c>
       <c r="Y2">
-        <v>-1.4301711051678033E-2</v>
+        <v>-7.4389505303242738E-3</v>
       </c>
       <c r="Z2">
-        <v>-7.0311604492107188E-3</v>
+        <v>-6.7097231218909755E-3</v>
       </c>
       <c r="AA2">
-        <v>-1.5566183548619663E-2</v>
+        <v>-4.0054858365030496E-3</v>
       </c>
       <c r="AB2">
-        <v>-6.4534400032140249E-3</v>
+        <v>-9.3832609007575632E-3</v>
       </c>
       <c r="AC2">
-        <v>-1.4036708622228406E-2</v>
+        <v>-6.1680565897098763E-3</v>
       </c>
       <c r="AD2">
-        <v>-9.7170521349566174E-3</v>
+        <v>-7.5214073125262565E-3</v>
       </c>
       <c r="AE2">
-        <v>-1.0625410987562025E-2</v>
+        <v>-4.3194508629079862E-3</v>
       </c>
       <c r="AF2">
-        <v>-1.2987235656492152E-2</v>
+        <v>-4.7068760719380541E-3</v>
       </c>
       <c r="AG2">
-        <v>-6.7143474991478973E-3</v>
+        <v>-8.8840634940467126E-3</v>
       </c>
       <c r="AH2">
-        <v>-1.2966172324480961E-2</v>
+        <v>-3.8239407701375684E-3</v>
       </c>
       <c r="AI2">
-        <v>-5.6049990745842106E-3</v>
+        <v>-8.5763349988333751E-3</v>
       </c>
       <c r="AJ2">
-        <v>-2.1847484750907385E-2</v>
+        <v>-8.0521151536310509E-3</v>
       </c>
       <c r="AK2">
-        <v>-9.0552246768707094E-3</v>
+        <v>-9.5984490206781903E-3</v>
       </c>
       <c r="AL2">
-        <v>-8.2372897226859389E-3</v>
+        <v>-7.2975704171883505E-3</v>
       </c>
       <c r="AM2">
-        <v>-9.7581380580808938E-3</v>
+        <v>-6.4506100043109508E-3</v>
       </c>
       <c r="AN2">
-        <v>-1.0741243721254935E-2</v>
+        <v>-7.4436883520902176E-3</v>
       </c>
       <c r="AO2">
-        <v>-1.0762494281158181E-2</v>
+        <v>-6.0355367234764534E-3</v>
       </c>
       <c r="AP2">
-        <v>-1.7129251627869713E-2</v>
+        <v>-1.0494989162986046E-2</v>
       </c>
       <c r="AQ2">
-        <v>-9.4813504767982688E-3</v>
+        <v>-7.8348364910579039E-3</v>
       </c>
       <c r="AR2">
-        <v>-1.2480331667786388E-2</v>
+        <v>-9.0779372236278171E-3</v>
       </c>
       <c r="AS2">
-        <v>-1.1501420897489546E-2</v>
+        <v>-5.2468434065360515E-3</v>
       </c>
       <c r="AT2">
-        <v>-1.0082205234385721E-2</v>
+        <v>-4.6596777287269417E-3</v>
       </c>
       <c r="AU2">
-        <v>-1.3903857209686624E-2</v>
+        <v>-5.2181775809046057E-3</v>
       </c>
       <c r="AV2">
-        <v>-5.8830101502108023E-3</v>
+        <v>-8.3367713879752142E-3</v>
       </c>
       <c r="AW2">
-        <v>-6.7588020971078534E-3</v>
+        <v>-1.0765197446281318E-2</v>
       </c>
       <c r="AX2">
-        <v>-1.4233252527485496E-2</v>
+        <v>-4.9456614482125301E-3</v>
       </c>
       <c r="AY2">
-        <v>-1.6217955809960601E-2</v>
+        <v>-9.6641012471754256E-3</v>
       </c>
       <c r="AZ2">
-        <v>-1.3151979216495597E-2</v>
+        <v>-7.7837635561044099E-3</v>
       </c>
       <c r="BA2">
-        <v>-8.167484914996595E-3</v>
+        <v>-7.3714654808106515E-3</v>
       </c>
       <c r="BB2">
-        <v>-5.6662682032610386E-3</v>
+        <v>-6.4278460062444209E-3</v>
       </c>
       <c r="BC2">
-        <v>-1.1423975090156047E-2</v>
+        <v>-1.3839566425071307E-2</v>
       </c>
       <c r="BD2">
-        <v>-7.887121026676519E-3</v>
+        <v>-1.1514527958063559E-2</v>
       </c>
       <c r="BE2">
-        <v>-1.1850936896949242E-2</v>
+        <v>-5.3309719625264391E-3</v>
       </c>
       <c r="BF2">
-        <v>-9.6028730928832962E-3</v>
+        <v>-2.6389272263768458E-3</v>
       </c>
       <c r="BG2">
-        <v>-7.2645475591454674E-3</v>
+        <v>-5.4140324822457035E-3</v>
       </c>
       <c r="BH2">
-        <v>-5.546284559834613E-3</v>
+        <v>-9.6406738261237274E-3</v>
       </c>
       <c r="BI2">
-        <v>-5.6872502305087974E-3</v>
+        <v>-8.8322995177219973E-3</v>
       </c>
       <c r="BJ2">
-        <v>-6.5858449688402263E-3</v>
+        <v>-1.036544253982016E-2</v>
       </c>
       <c r="BK2">
-        <v>-1.4267789927781639E-2</v>
+        <v>-5.864174424945745E-3</v>
       </c>
       <c r="BL2">
-        <v>-8.9896925372999308E-3</v>
+        <v>-8.501026443778651E-3</v>
       </c>
       <c r="BM2">
-        <v>-1.1237397868940523E-2</v>
+        <v>-8.2476738798851357E-3</v>
       </c>
       <c r="BN2">
-        <v>-1.3143608745940023E-2</v>
+        <v>-6.3544557763970753E-3</v>
       </c>
       <c r="BO2">
-        <v>-1.5868695194459579E-2</v>
+        <v>-6.6019744496516432E-3</v>
       </c>
       <c r="BP2">
-        <v>-7.1068066923613759E-3</v>
+        <v>-6.2543887183258255E-3</v>
       </c>
       <c r="BQ2">
-        <v>-1.1413635888821039E-2</v>
+        <v>-6.5943053595595887E-3</v>
       </c>
       <c r="BR2">
-        <v>-1.3895766599913531E-2</v>
+        <v>-8.4703470769107794E-3</v>
       </c>
       <c r="BS2">
-        <v>-5.0648409051671488E-3</v>
+        <v>-4.6525507699802073E-3</v>
       </c>
       <c r="BT2">
-        <v>-8.1487623059586754E-3</v>
+        <v>-7.7910337170988466E-3</v>
       </c>
       <c r="BU2">
-        <v>-1.2061684830327416E-2</v>
+        <v>-4.5218055833669297E-3</v>
       </c>
       <c r="BV2">
-        <v>-5.1606174924713963E-3</v>
+        <v>-6.4212381337125507E-3</v>
       </c>
       <c r="BW2">
-        <v>-7.2688873849580012E-3</v>
+        <v>-6.2337616107754311E-3</v>
       </c>
       <c r="BX2">
-        <v>-5.9008024223065362E-3</v>
+        <v>-8.208780527314578E-3</v>
       </c>
       <c r="BY2">
-        <v>-9.5824603141889467E-3</v>
+        <v>-7.4015650604095226E-3</v>
       </c>
       <c r="BZ2">
-        <v>-1.3950655682272974E-2</v>
+        <v>-9.8147662065356869E-3</v>
       </c>
       <c r="CA2">
-        <v>-1.6081804159318536E-2</v>
+        <v>-1.3826710276341388E-2</v>
       </c>
       <c r="CB2">
-        <v>-5.3292014371954634E-3</v>
+        <v>-5.8696024390578741E-3</v>
       </c>
       <c r="CC2">
-        <v>-9.0287583014713787E-3</v>
+        <v>-6.5859715869797525E-3</v>
       </c>
       <c r="CD2">
-        <v>-4.0832604022466986E-3</v>
+        <v>-1.6486934187737248E-2</v>
       </c>
       <c r="CE2">
-        <v>-8.7925739468814879E-3</v>
+        <v>-6.0692137372621441E-3</v>
       </c>
       <c r="CF2">
-        <v>-8.7781882474924806E-3</v>
+        <v>-7.5571372309349927E-3</v>
       </c>
       <c r="CG2">
-        <v>-5.6283371163242746E-3</v>
+        <v>-6.3493497516488463E-3</v>
       </c>
       <c r="CH2">
-        <v>-1.147934055973664E-2</v>
+        <v>-9.208860578361509E-3</v>
       </c>
       <c r="CI2">
-        <v>-8.3150369093546676E-3</v>
+        <v>-1.3111641670367222E-2</v>
       </c>
       <c r="CJ2">
-        <v>-5.7252790895594456E-3</v>
+        <v>-1.1948918369000727E-2</v>
       </c>
       <c r="CK2">
-        <v>-9.4539485905204158E-3</v>
+        <v>-8.5250657199378889E-3</v>
       </c>
       <c r="CL2">
-        <v>-1.036655944673613E-2</v>
+        <v>-7.3859973140404612E-3</v>
       </c>
       <c r="CM2">
-        <v>-6.5111758678740878E-3</v>
+        <v>-1.0623901253811281E-2</v>
       </c>
       <c r="CN2">
-        <v>-1.2941115508659265E-2</v>
+        <v>-4.9640353454574121E-3</v>
       </c>
       <c r="CO2">
-        <v>-7.8378030323628927E-3</v>
+        <v>-1.0610296698846994E-2</v>
       </c>
       <c r="CP2">
-        <v>-7.3291931281834555E-3</v>
+        <v>-5.73244649359754E-3</v>
       </c>
       <c r="CQ2">
-        <v>-1.2808485857224208E-2</v>
+        <v>-6.2197578471803365E-3</v>
       </c>
       <c r="CR2">
-        <v>-9.0241023533499092E-3</v>
+        <v>-7.9659564693536512E-3</v>
       </c>
       <c r="CS2">
-        <v>-1.0429236200222014E-2</v>
+        <v>-5.3758955235346274E-3</v>
       </c>
       <c r="CT2">
-        <v>-7.1796177976953769E-3</v>
+        <v>-9.7173916344863668E-3</v>
       </c>
       <c r="CU2">
-        <v>-5.7530536183217421E-3</v>
+        <v>-1.2317404329415095E-2</v>
       </c>
       <c r="CV2">
-        <v>-1.2703178745355292E-2</v>
+        <v>-9.967455001997751E-3</v>
       </c>
     </row>
   </sheetData>

--- a/TestMNIST/MatlabCodes/temp_3_layer_final_iteration.xlsx
+++ b/TestMNIST/MatlabCodes/temp_3_layer_final_iteration.xlsx
@@ -411,606 +411,606 @@
   <sheetData>
     <row r="1" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>-7.2492138255929334E-3</v>
+        <v>-9.1819980337988858E-3</v>
       </c>
       <c r="B1">
-        <v>-8.1406616791069343E-3</v>
+        <v>-5.3427473055305333E-3</v>
       </c>
       <c r="C1">
-        <v>-1.0476259361751117E-2</v>
+        <v>-9.7178397593929607E-3</v>
       </c>
       <c r="D1">
-        <v>-2.556858610363141E-2</v>
+        <v>-7.8811667531655839E-3</v>
       </c>
       <c r="E1">
-        <v>-1.0125570160998762E-2</v>
+        <v>-6.7634929278475508E-3</v>
       </c>
       <c r="F1">
-        <v>-1.3172471437025322E-2</v>
+        <v>-4.9932384171355758E-3</v>
       </c>
       <c r="G1">
-        <v>-1.2641673179481956E-2</v>
+        <v>-8.202100189464212E-3</v>
       </c>
       <c r="H1">
-        <v>-1.1937456888638792E-2</v>
+        <v>-6.6603716753310619E-3</v>
       </c>
       <c r="I1">
-        <v>-1.378804864623317E-2</v>
+        <v>-8.9338388189316546E-3</v>
       </c>
       <c r="J1">
-        <v>-7.247545319591083E-3</v>
+        <v>-7.3568293760257119E-3</v>
       </c>
       <c r="K1">
-        <v>-1.646151114502167E-2</v>
+        <v>-6.364244560287495E-3</v>
       </c>
       <c r="L1">
-        <v>-1.3512618722307355E-2</v>
+        <v>-7.0290918241296303E-3</v>
       </c>
       <c r="M1">
-        <v>-1.251861593687624E-2</v>
+        <v>-3.9412687495760648E-3</v>
       </c>
       <c r="N1">
-        <v>-5.571747480154661E-3</v>
+        <v>-7.535339668414495E-3</v>
       </c>
       <c r="O1">
-        <v>-1.4462009470536831E-2</v>
+        <v>-7.0801204402612629E-3</v>
       </c>
       <c r="P1">
-        <v>-1.6551990704047538E-2</v>
+        <v>-9.078543113916468E-3</v>
       </c>
       <c r="Q1">
-        <v>-5.8200881485237161E-3</v>
+        <v>-6.4771885594827432E-3</v>
       </c>
       <c r="R1">
-        <v>-1.3496884892132317E-2</v>
+        <v>-8.1219678240546829E-3</v>
       </c>
       <c r="S1">
-        <v>-1.3872085034304597E-2</v>
+        <v>-6.6796883322349414E-3</v>
       </c>
       <c r="T1">
-        <v>-5.5951081168035188E-3</v>
+        <v>-8.9110120157371801E-3</v>
       </c>
       <c r="U1">
-        <v>-8.8237923253074221E-3</v>
+        <v>-4.9066621457328529E-3</v>
       </c>
       <c r="V1">
-        <v>-5.8510575717777916E-3</v>
+        <v>-1.1526503266864021E-2</v>
       </c>
       <c r="W1">
-        <v>-1.5427601051563603E-2</v>
+        <v>-7.3948240892507391E-3</v>
       </c>
       <c r="X1">
-        <v>-8.7213563534530598E-3</v>
+        <v>-7.1967720101541871E-3</v>
       </c>
       <c r="Y1">
-        <v>-1.1082330541946834E-2</v>
+        <v>-8.2402870094704806E-3</v>
       </c>
       <c r="Z1">
-        <v>-9.9556622633120966E-3</v>
+        <v>-5.3815088750023997E-3</v>
       </c>
       <c r="AA1">
-        <v>-6.2275913804645828E-3</v>
+        <v>-9.8842157871807269E-3</v>
       </c>
       <c r="AB1">
-        <v>-1.3861635660099954E-2</v>
+        <v>-7.3633932725985958E-3</v>
       </c>
       <c r="AC1">
-        <v>-9.3971134133796173E-3</v>
+        <v>-4.0452998982180629E-3</v>
       </c>
       <c r="AD1">
-        <v>-1.1075932117370757E-2</v>
+        <v>-3.779290335538994E-3</v>
       </c>
       <c r="AE1">
-        <v>-6.6305612759871065E-3</v>
+        <v>-8.1270218874019036E-3</v>
       </c>
       <c r="AF1">
-        <v>-6.893430232916253E-3</v>
+        <v>-6.2317465081067301E-3</v>
       </c>
       <c r="AG1">
-        <v>-1.3389139047476841E-2</v>
+        <v>-6.8178820700799392E-3</v>
       </c>
       <c r="AH1">
-        <v>-5.8670421861891729E-3</v>
+        <v>-5.8416435299399267E-3</v>
       </c>
       <c r="AI1">
-        <v>-1.2906145175809493E-2</v>
+        <v>-6.8373014143120669E-3</v>
       </c>
       <c r="AJ1">
-        <v>-1.2169101628959917E-2</v>
+        <v>-5.8529860906330689E-3</v>
       </c>
       <c r="AK1">
-        <v>-1.4189892947085466E-2</v>
+        <v>-8.0135237588093589E-3</v>
       </c>
       <c r="AL1">
-        <v>-1.093759161863948E-2</v>
+        <v>-5.1537040383196923E-3</v>
       </c>
       <c r="AM1">
-        <v>-9.7296514478636895E-3</v>
+        <v>-8.7731631659111933E-3</v>
       </c>
       <c r="AN1">
-        <v>-1.1266775644244725E-2</v>
+        <v>-7.1601416373648181E-3</v>
       </c>
       <c r="AO1">
-        <v>-8.8178120656835571E-3</v>
+        <v>-5.3873455088755259E-3</v>
       </c>
       <c r="AP1">
-        <v>-1.5547878187930932E-2</v>
+        <v>-1.2617296899878113E-2</v>
       </c>
       <c r="AQ1">
-        <v>-1.1552749219122228E-2</v>
+        <v>-1.0527547746610699E-2</v>
       </c>
       <c r="AR1">
-        <v>-1.3598249296308396E-2</v>
+        <v>-9.0165385053548857E-3</v>
       </c>
       <c r="AS1">
-        <v>-7.8437667642468172E-3</v>
+        <v>-7.6871469556173411E-3</v>
       </c>
       <c r="AT1">
-        <v>-7.0830787390293972E-3</v>
+        <v>-2.4652727631233927E-3</v>
       </c>
       <c r="AU1">
-        <v>-7.8593407876522085E-3</v>
+        <v>-8.8851882371918552E-3</v>
       </c>
       <c r="AV1">
-        <v>-1.2574802918090995E-2</v>
+        <v>-7.5144473046717692E-3</v>
       </c>
       <c r="AW1">
-        <v>-1.6249698049970198E-2</v>
+        <v>-8.1884243438038323E-3</v>
       </c>
       <c r="AX1">
-        <v>-7.5256715133203709E-3</v>
+        <v>-6.3042396540661455E-3</v>
       </c>
       <c r="AY1">
-        <v>-1.481900985676071E-2</v>
+        <v>-8.8041415151515878E-3</v>
       </c>
       <c r="AZ1">
-        <v>-1.1592402383972571E-2</v>
+        <v>-9.5775892894473733E-3</v>
       </c>
       <c r="BA1">
-        <v>-1.1024348785214182E-2</v>
+        <v>-5.5972871694003196E-3</v>
       </c>
       <c r="BB1">
-        <v>-9.7984816463209702E-3</v>
+        <v>-2.306988126884936E-3</v>
       </c>
       <c r="BC1">
-        <v>-2.0626752990217063E-2</v>
+        <v>-9.7270025403645745E-3</v>
       </c>
       <c r="BD1">
-        <v>-1.7219725455981397E-2</v>
+        <v>-9.0050599371545755E-3</v>
       </c>
       <c r="BE1">
-        <v>-8.0782716237869957E-3</v>
+        <v>-7.6190049684183537E-3</v>
       </c>
       <c r="BF1">
-        <v>-3.8681819646098209E-3</v>
+        <v>-6.4638461647808102E-3</v>
       </c>
       <c r="BG1">
-        <v>-8.2957899077579066E-3</v>
+        <v>-1.5225631402538749E-2</v>
       </c>
       <c r="BH1">
-        <v>-1.425184922553157E-2</v>
+        <v>-8.4554921344091906E-3</v>
       </c>
       <c r="BI1">
-        <v>-1.3169274263205433E-2</v>
+        <v>-9.8629206864996998E-3</v>
       </c>
       <c r="BJ1">
-        <v>-1.5260177747871475E-2</v>
+        <v>-4.7493957300026356E-3</v>
       </c>
       <c r="BK1">
-        <v>-8.7700092893821004E-3</v>
+        <v>-9.2259643470953001E-3</v>
       </c>
       <c r="BL1">
-        <v>-1.2856714945514405E-2</v>
+        <v>-6.4654094262127223E-3</v>
       </c>
       <c r="BM1">
-        <v>-1.205544726356563E-2</v>
+        <v>-9.2147484819883208E-3</v>
       </c>
       <c r="BN1">
-        <v>-9.591909969939352E-3</v>
+        <v>-6.6679697818575598E-3</v>
       </c>
       <c r="BO1">
-        <v>-9.8161960700519565E-3</v>
+        <v>-7.7214859741516111E-3</v>
       </c>
       <c r="BP1">
-        <v>-9.5041388609923214E-3</v>
+        <v>-1.0972375493972035E-2</v>
       </c>
       <c r="BQ1">
-        <v>-9.9404947335626718E-3</v>
+        <v>-6.4086852724880112E-3</v>
       </c>
       <c r="BR1">
-        <v>-1.2550208508715429E-2</v>
+        <v>-1.1760800226973404E-2</v>
       </c>
       <c r="BS1">
-        <v>-7.0414880134418087E-3</v>
+        <v>-4.3846211069583224E-3</v>
       </c>
       <c r="BT1">
-        <v>-1.172784490709276E-2</v>
+        <v>-1.0656614296774614E-2</v>
       </c>
       <c r="BU1">
-        <v>-6.7806898315991657E-3</v>
+        <v>-8.6884253004113621E-3</v>
       </c>
       <c r="BV1">
-        <v>-9.6182641589219482E-3</v>
+        <v>-7.3866905380045389E-3</v>
       </c>
       <c r="BW1">
-        <v>-9.3171513970979301E-3</v>
+        <v>-7.7271926161336614E-3</v>
       </c>
       <c r="BX1">
-        <v>-1.2145755516404714E-2</v>
+        <v>-5.860950243410541E-3</v>
       </c>
       <c r="BY1">
-        <v>-1.1174883837687579E-2</v>
+        <v>-6.9167299166315623E-3</v>
       </c>
       <c r="BZ1">
-        <v>-1.4894073434866317E-2</v>
+        <v>-7.4879807233557113E-3</v>
       </c>
       <c r="CA1">
-        <v>-2.0639696556917504E-2</v>
+        <v>-7.8462833340510879E-3</v>
       </c>
       <c r="CB1">
-        <v>-8.7641346547216951E-3</v>
+        <v>-7.3275763890100157E-3</v>
       </c>
       <c r="CC1">
-        <v>-9.8057601929620666E-3</v>
+        <v>-7.4196567523365604E-3</v>
       </c>
       <c r="CD1">
-        <v>-2.4627395122719914E-2</v>
+        <v>-1.1165517553005906E-2</v>
       </c>
       <c r="CE1">
-        <v>-9.1017642920785506E-3</v>
+        <v>-9.168227243620446E-3</v>
       </c>
       <c r="CF1">
-        <v>-1.1337532676992989E-2</v>
+        <v>-7.1970781669501568E-3</v>
       </c>
       <c r="CG1">
-        <v>-9.4551228883978603E-3</v>
+        <v>-6.2599346931555642E-3</v>
       </c>
       <c r="CH1">
-        <v>-1.3723318436480536E-2</v>
+        <v>-4.9141422401480532E-3</v>
       </c>
       <c r="CI1">
-        <v>-1.9702816905792078E-2</v>
+        <v>-2.4983407259549658E-3</v>
       </c>
       <c r="CJ1">
-        <v>-1.7959128558727371E-2</v>
+        <v>-3.8164967729898526E-3</v>
       </c>
       <c r="CK1">
-        <v>-1.289130835119561E-2</v>
+        <v>-6.0727996022276031E-3</v>
       </c>
       <c r="CL1">
-        <v>-1.0958252114243094E-2</v>
+        <v>-9.1602360170399497E-3</v>
       </c>
       <c r="CM1">
-        <v>-1.5916930086667076E-2</v>
+        <v>-7.800838331421223E-3</v>
       </c>
       <c r="CN1">
-        <v>-7.3190747732922948E-3</v>
+        <v>-6.8135758894969194E-3</v>
       </c>
       <c r="CO1">
-        <v>-1.6179571103717798E-2</v>
+        <v>-6.9235678183279317E-3</v>
       </c>
       <c r="CP1">
-        <v>-8.6265468699684138E-3</v>
+        <v>-5.5522896140455481E-3</v>
       </c>
       <c r="CQ1">
-        <v>-9.2314960547410924E-3</v>
+        <v>-1.1152584880001815E-2</v>
       </c>
       <c r="CR1">
-        <v>-1.2026689574848769E-2</v>
+        <v>-7.7244956960338196E-3</v>
       </c>
       <c r="CS1">
-        <v>-7.8644794802026196E-3</v>
+        <v>-1.1409432576485841E-2</v>
       </c>
       <c r="CT1">
-        <v>-1.4603943371106199E-2</v>
+        <v>-1.1607864859644495E-2</v>
       </c>
       <c r="CU1">
-        <v>-1.8644272319801463E-2</v>
+        <v>-9.361438685423825E-3</v>
       </c>
       <c r="CV1">
-        <v>-1.5127456752527305E-2</v>
+        <v>-5.814113013069026E-3</v>
       </c>
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>-4.8350637807840205E-3</v>
+        <v>-1.3668417412427206E-2</v>
       </c>
       <c r="B2">
-        <v>-5.5035107910001652E-3</v>
+        <v>-7.8267374716220906E-3</v>
       </c>
       <c r="C2">
-        <v>-7.0806624105755438E-3</v>
+        <v>-1.4636608781829567E-2</v>
       </c>
       <c r="D2">
-        <v>-1.7003156279647283E-2</v>
+        <v>-1.1860560747251581E-2</v>
       </c>
       <c r="E2">
-        <v>-6.7238527716587705E-3</v>
+        <v>-1.0078562048807719E-2</v>
       </c>
       <c r="F2">
-        <v>-8.7383570410764638E-3</v>
+        <v>-7.4730821472695219E-3</v>
       </c>
       <c r="G2">
-        <v>-8.4962159653004087E-3</v>
+        <v>-1.2359374437949757E-2</v>
       </c>
       <c r="H2">
-        <v>-7.9760443121369533E-3</v>
+        <v>-1.0195109174677589E-2</v>
       </c>
       <c r="I2">
-        <v>-9.0628326991734447E-3</v>
+        <v>-1.311038760724997E-2</v>
       </c>
       <c r="J2">
-        <v>-4.8656856824941235E-3</v>
+        <v>-1.1165730696261289E-2</v>
       </c>
       <c r="K2">
-        <v>-1.0905538019935926E-2</v>
+        <v>-9.4796287817438055E-3</v>
       </c>
       <c r="L2">
-        <v>-8.9766993561141307E-3</v>
+        <v>-1.0387886484025928E-2</v>
       </c>
       <c r="M2">
-        <v>-8.4943799651096257E-3</v>
+        <v>-5.9463341965112718E-3</v>
       </c>
       <c r="N2">
-        <v>-3.822264160006238E-3</v>
+        <v>-1.1492876578089006E-2</v>
       </c>
       <c r="O2">
-        <v>-9.5428738897912809E-3</v>
+        <v>-1.0665459417696983E-2</v>
       </c>
       <c r="P2">
-        <v>-1.1080266826027323E-2</v>
+        <v>-1.334587155100418E-2</v>
       </c>
       <c r="Q2">
-        <v>-3.9794242965338856E-3</v>
+        <v>-9.7638671238293694E-3</v>
       </c>
       <c r="R2">
-        <v>-9.0981358140962507E-3</v>
+        <v>-1.2233293402251389E-2</v>
       </c>
       <c r="S2">
-        <v>-9.1325682290481509E-3</v>
+        <v>-1.0050524680997052E-2</v>
       </c>
       <c r="T2">
-        <v>-3.7450789119077184E-3</v>
+        <v>-1.3680628300326328E-2</v>
       </c>
       <c r="U2">
-        <v>-5.8306731614316846E-3</v>
+        <v>-7.3926353017200004E-3</v>
       </c>
       <c r="V2">
-        <v>-3.8748309883264997E-3</v>
+        <v>-1.7288905067571525E-2</v>
       </c>
       <c r="W2">
-        <v>-1.0186842602661658E-2</v>
+        <v>-1.1197785013626897E-2</v>
       </c>
       <c r="X2">
-        <v>-5.8524473823311721E-3</v>
+        <v>-1.0833677789937877E-2</v>
       </c>
       <c r="Y2">
-        <v>-7.4389505303242738E-3</v>
+        <v>-1.2195259054993152E-2</v>
       </c>
       <c r="Z2">
-        <v>-6.7097231218909755E-3</v>
+        <v>-7.9193602482837272E-3</v>
       </c>
       <c r="AA2">
-        <v>-4.0054858365030496E-3</v>
+        <v>-1.4662512120028635E-2</v>
       </c>
       <c r="AB2">
-        <v>-9.3832609007575632E-3</v>
+        <v>-1.0958832806498403E-2</v>
       </c>
       <c r="AC2">
-        <v>-6.1680565897098763E-3</v>
+        <v>-5.9364004057332618E-3</v>
       </c>
       <c r="AD2">
-        <v>-7.5214073125262565E-3</v>
+        <v>-5.6995681222105988E-3</v>
       </c>
       <c r="AE2">
-        <v>-4.3194508629079862E-3</v>
+        <v>-1.2091501289667269E-2</v>
       </c>
       <c r="AF2">
-        <v>-4.7068760719380541E-3</v>
+        <v>-9.2553564095355628E-3</v>
       </c>
       <c r="AG2">
-        <v>-8.8840634940467126E-3</v>
+        <v>-1.0225389540608847E-2</v>
       </c>
       <c r="AH2">
-        <v>-3.8239407701375684E-3</v>
+        <v>-8.6628359503298728E-3</v>
       </c>
       <c r="AI2">
-        <v>-8.5763349988333751E-3</v>
+        <v>-1.0205717443401449E-2</v>
       </c>
       <c r="AJ2">
-        <v>-8.0521151536310509E-3</v>
+        <v>-8.5908168672839264E-3</v>
       </c>
       <c r="AK2">
-        <v>-9.5984490206781903E-3</v>
+        <v>-1.2236674802189299E-2</v>
       </c>
       <c r="AL2">
-        <v>-7.2975704171883505E-3</v>
+        <v>-7.8357542125067452E-3</v>
       </c>
       <c r="AM2">
-        <v>-6.4506100043109508E-3</v>
+        <v>-1.3140854780175973E-2</v>
       </c>
       <c r="AN2">
-        <v>-7.4436883520902176E-3</v>
+        <v>-1.069955688594585E-2</v>
       </c>
       <c r="AO2">
-        <v>-6.0355367234764534E-3</v>
+        <v>-8.173219029415103E-3</v>
       </c>
       <c r="AP2">
-        <v>-1.0494989162986046E-2</v>
+        <v>-1.9120134123695409E-2</v>
       </c>
       <c r="AQ2">
-        <v>-7.8348364910579039E-3</v>
+        <v>-1.5872932106917821E-2</v>
       </c>
       <c r="AR2">
-        <v>-9.0779372236278171E-3</v>
+        <v>-1.3496771671036849E-2</v>
       </c>
       <c r="AS2">
-        <v>-5.2468434065360515E-3</v>
+        <v>-1.1460572792562225E-2</v>
       </c>
       <c r="AT2">
-        <v>-4.6596777287269417E-3</v>
+        <v>-3.6187591997602041E-3</v>
       </c>
       <c r="AU2">
-        <v>-5.2181775809046057E-3</v>
+        <v>-1.3198640637618926E-2</v>
       </c>
       <c r="AV2">
-        <v>-8.3367713879752142E-3</v>
+        <v>-1.1314161647484075E-2</v>
       </c>
       <c r="AW2">
-        <v>-1.0765197446281318E-2</v>
+        <v>-1.2187979755763263E-2</v>
       </c>
       <c r="AX2">
-        <v>-4.9456614482125301E-3</v>
+        <v>-9.304559092095592E-3</v>
       </c>
       <c r="AY2">
-        <v>-9.6641012471754256E-3</v>
+        <v>-1.3350539434589791E-2</v>
       </c>
       <c r="AZ2">
-        <v>-7.7837635561044099E-3</v>
+        <v>-1.4351474983120296E-2</v>
       </c>
       <c r="BA2">
-        <v>-7.3714654808106515E-3</v>
+        <v>-8.3670199823945423E-3</v>
       </c>
       <c r="BB2">
-        <v>-6.4278460062444209E-3</v>
+        <v>-3.449868327568344E-3</v>
       </c>
       <c r="BC2">
-        <v>-1.3839566425071307E-2</v>
+        <v>-1.4534714038238571E-2</v>
       </c>
       <c r="BD2">
-        <v>-1.1514527958063559E-2</v>
+        <v>-1.3389361486656847E-2</v>
       </c>
       <c r="BE2">
-        <v>-5.3309719625264391E-3</v>
+        <v>-1.139281281248454E-2</v>
       </c>
       <c r="BF2">
-        <v>-2.6389272263768458E-3</v>
+        <v>-9.7734237072751896E-3</v>
       </c>
       <c r="BG2">
-        <v>-5.4140324822457035E-3</v>
+        <v>-2.2913431367783836E-2</v>
       </c>
       <c r="BH2">
-        <v>-9.6406738261237274E-3</v>
+        <v>-1.2479696075761817E-2</v>
       </c>
       <c r="BI2">
-        <v>-8.8322995177219973E-3</v>
+        <v>-1.4771477561376508E-2</v>
       </c>
       <c r="BJ2">
-        <v>-1.036544253982016E-2</v>
+        <v>-6.9758736849603971E-3</v>
       </c>
       <c r="BK2">
-        <v>-5.864174424945745E-3</v>
+        <v>-1.3849988779386391E-2</v>
       </c>
       <c r="BL2">
-        <v>-8.501026443778651E-3</v>
+        <v>-9.8780041911754497E-3</v>
       </c>
       <c r="BM2">
-        <v>-8.2476738798851357E-3</v>
+        <v>-1.3597119386565893E-2</v>
       </c>
       <c r="BN2">
-        <v>-6.3544557763970753E-3</v>
+        <v>-9.8984443535970416E-3</v>
       </c>
       <c r="BO2">
-        <v>-6.6019744496516432E-3</v>
+        <v>-1.1424662845517778E-2</v>
       </c>
       <c r="BP2">
-        <v>-6.2543887183258255E-3</v>
+        <v>-1.6409369831070497E-2</v>
       </c>
       <c r="BQ2">
-        <v>-6.5943053595595887E-3</v>
+        <v>-9.5916667088482514E-3</v>
       </c>
       <c r="BR2">
-        <v>-8.4703470769107794E-3</v>
+        <v>-1.7690965321226756E-2</v>
       </c>
       <c r="BS2">
-        <v>-4.6525507699802073E-3</v>
+        <v>-6.3931566264119289E-3</v>
       </c>
       <c r="BT2">
-        <v>-7.7910337170988466E-3</v>
+        <v>-1.5741547925140306E-2</v>
       </c>
       <c r="BU2">
-        <v>-4.5218055833669297E-3</v>
+        <v>-1.3197083956655939E-2</v>
       </c>
       <c r="BV2">
-        <v>-6.4212381337125507E-3</v>
+        <v>-1.1171606567734721E-2</v>
       </c>
       <c r="BW2">
-        <v>-6.2337616107754311E-3</v>
+        <v>-1.1791023671404327E-2</v>
       </c>
       <c r="BX2">
-        <v>-8.208780527314578E-3</v>
+        <v>-8.6625452184432381E-3</v>
       </c>
       <c r="BY2">
-        <v>-7.4015650604095226E-3</v>
+        <v>-1.0300838661402828E-2</v>
       </c>
       <c r="BZ2">
-        <v>-9.8147662065356869E-3</v>
+        <v>-1.1008632488365528E-2</v>
       </c>
       <c r="CA2">
-        <v>-1.3826710276341388E-2</v>
+        <v>-1.1592560984078331E-2</v>
       </c>
       <c r="CB2">
-        <v>-5.8696024390578741E-3</v>
+        <v>-1.097163731454757E-2</v>
       </c>
       <c r="CC2">
-        <v>-6.5859715869797525E-3</v>
+        <v>-1.1231209284413846E-2</v>
       </c>
       <c r="CD2">
-        <v>-1.6486934187737248E-2</v>
+        <v>-1.6812363053510221E-2</v>
       </c>
       <c r="CE2">
-        <v>-6.0692137372621441E-3</v>
+        <v>-1.3802611464357373E-2</v>
       </c>
       <c r="CF2">
-        <v>-7.5571372309349927E-3</v>
+        <v>-1.0603097557410556E-2</v>
       </c>
       <c r="CG2">
-        <v>-6.3493497516488463E-3</v>
+        <v>-9.266412788590599E-3</v>
       </c>
       <c r="CH2">
-        <v>-9.208860578361509E-3</v>
+        <v>-7.5346301276741391E-3</v>
       </c>
       <c r="CI2">
-        <v>-1.3111641670367222E-2</v>
+        <v>-3.6646699672830741E-3</v>
       </c>
       <c r="CJ2">
-        <v>-1.1948918369000727E-2</v>
+        <v>-5.7489364282558219E-3</v>
       </c>
       <c r="CK2">
-        <v>-8.5250657199378889E-3</v>
+        <v>-9.2662518291571436E-3</v>
       </c>
       <c r="CL2">
-        <v>-7.3859973140404612E-3</v>
+        <v>-1.3851755063253972E-2</v>
       </c>
       <c r="CM2">
-        <v>-1.0623901253811281E-2</v>
+        <v>-1.1716678785369595E-2</v>
       </c>
       <c r="CN2">
-        <v>-4.9640353454574121E-3</v>
+        <v>-1.0090717158488667E-2</v>
       </c>
       <c r="CO2">
-        <v>-1.0610296698846994E-2</v>
+        <v>-1.0397354463191831E-2</v>
       </c>
       <c r="CP2">
-        <v>-5.73244649359754E-3</v>
+        <v>-8.5716205973731148E-3</v>
       </c>
       <c r="CQ2">
-        <v>-6.2197578471803365E-3</v>
+        <v>-1.6760787766782432E-2</v>
       </c>
       <c r="CR2">
-        <v>-7.9659564693536512E-3</v>
+        <v>-1.1402986761400032E-2</v>
       </c>
       <c r="CS2">
-        <v>-5.3758955235346274E-3</v>
+        <v>-1.7116228249614014E-2</v>
       </c>
       <c r="CT2">
-        <v>-9.7173916344863668E-3</v>
+        <v>-1.7400637640131982E-2</v>
       </c>
       <c r="CU2">
-        <v>-1.2317404329415095E-2</v>
+        <v>-1.3883345012292382E-2</v>
       </c>
       <c r="CV2">
-        <v>-9.967455001997751E-3</v>
+        <v>-8.7124838674137693E-3</v>
       </c>
     </row>
   </sheetData>
